--- a/docs/formatos-carga/registrar - webservice.xlsx
+++ b/docs/formatos-carga/registrar - webservice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUMBERTO-PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\repos\00043-DWeb-CuentasPorCobrar\docs\formatos-carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B97C59-61AE-4448-B8A7-35CD91F7721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAD93E1-66C6-450A-B298-AEFA16B862A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{AA7C1ECB-C44D-4F0F-9EED-46EBFA85A98E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>cod_rc</t>
   </si>
@@ -74,28 +74,85 @@
     <t>fec_nac</t>
   </si>
   <si>
-    <t>097</t>
-  </si>
-  <si>
     <t>DI</t>
   </si>
   <si>
-    <t>USURIN</t>
-  </si>
-  <si>
-    <t>VALDIVIA</t>
-  </si>
-  <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>2004-04-16</t>
+    <t>HIDALGO</t>
+  </si>
+  <si>
+    <t>QUISPE</t>
+  </si>
+  <si>
+    <t>JENNY MARGOT</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>1968-12-17</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>FIESTAS</t>
+  </si>
+  <si>
+    <t>CACERES</t>
+  </si>
+  <si>
+    <t>SEBASTIAN</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>COTRINA</t>
+  </si>
+  <si>
+    <t>RABANAL</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>PASTOR</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M43</t>
+  </si>
+  <si>
+    <t>1950-02-25</t>
+  </si>
+  <si>
+    <t>1977-09-21</t>
+  </si>
+  <si>
+    <t>1969-12-01</t>
+  </si>
+  <si>
+    <t>08691057</t>
+  </si>
+  <si>
+    <t>09479865</t>
+  </si>
+  <si>
+    <t>07416851</t>
   </si>
 </sst>
 </file>
@@ -131,10 +188,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,11 +507,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B53E06-A07A-40AA-BBD4-82F556007EA2}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -462,7 +534,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -489,46 +561,160 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>2022029528</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>2021023169</v>
-      </c>
-      <c r="C2">
-        <v>77702089</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2022032705</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10789750</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>2022</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2022032732</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>2022</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>2022032786</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>2022</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/formatos-carga/registrar - webservice.xlsx
+++ b/docs/formatos-carga/registrar - webservice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\repos\00043-DWeb-CuentasPorCobrar\docs\formatos-carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAD93E1-66C6-450A-B298-AEFA16B862A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91194681-D6A9-4E10-8589-9FDE2E07D092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{AA7C1ECB-C44D-4F0F-9EED-46EBFA85A98E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA7C1ECB-C44D-4F0F-9EED-46EBFA85A98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -188,9 +188,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -513,9 +512,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -524,17 +523,17 @@
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -561,18 +560,18 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2022029528</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
@@ -599,18 +598,18 @@
       <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2022032705</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>10789750</v>
       </c>
       <c r="D3" t="s">
@@ -637,18 +636,18 @@
       <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2022032732</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
@@ -675,18 +674,18 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2022032786</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
@@ -713,7 +712,7 @@
       <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
